--- a/020-内部設計/023-検索機能/SearchResult/クラス仕様書_SearchValue.xlsx
+++ b/020-内部設計/023-検索機能/SearchResult/クラス仕様書_SearchValue.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDD0DFD-560D-4B74-A80A-5BEB0C490A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DA0544-95A9-441F-808A-CFE05DBF26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
     <sheet name="コンストラクタ（No.1）" sheetId="7" r:id="rId2"/>
-    <sheet name="メソッド仕様（getParamList）" sheetId="8" r:id="rId3"/>
-    <sheet name="メソッド仕様（getCondition）" sheetId="9" r:id="rId4"/>
+    <sheet name="メソッド仕様_getParamList" sheetId="8" r:id="rId3"/>
+    <sheet name="メソッド仕様_getCondition" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BJ$30</definedName>
@@ -325,13 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィールドの値リストに格納されている情報を取得する。</t>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>値リスト</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -344,10 +337,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>フィールドの値リストに格納されている情報を取得する。</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>getParamList</t>
     <phoneticPr fontId="6"/>
   </si>
@@ -357,25 +346,6 @@
   </si>
   <si>
     <t>List&lt;Object&gt;</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1. フィールドの値リストに格納されている情報を取得し返却する。</t>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヘンキャク</t>
-    </rPh>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -410,41 +380,6 @@
   <si>
     <t>getCondition</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フィールドの絞込み条件に格納されている情報を取得する。</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シボリコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1. フィールドの絞込み条件に格納されている情報を取得し返却する。</t>
-    <rPh sb="9" eb="11">
-      <t>シボリコ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>SQL文の絞込み条件</t>
@@ -499,16 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィールドの絞込み条件に格納されている情報を取得する。</t>
-    <rPh sb="6" eb="8">
-      <t>シボリコ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>絞込み条件</t>
     <rPh sb="0" eb="2">
       <t>シボリコ</t>
@@ -553,7 +478,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SQL文に設定する値が格納されたリストと絞込み条件を格納する。</t>
+    <t>検索条件を格納するクラス。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL文に設定する値が格納されたリストと絞込み条件を格納。</t>
     <rPh sb="20" eb="22">
       <t>シボリコ</t>
     </rPh>
@@ -566,17 +504,79 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索条件を格納するクラス。</t>
+    <t>フィールドの値リストに格納されている情報を取得。</t>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールドの絞込み条件に格納されている情報を取得。</t>
     <rPh sb="0" eb="2">
-      <t>ケンサク</t>
+      <t>ジョウホウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh sb="6" eb="8">
+      <t>シボリコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. フィールドの値リストに格納されている情報を取得し返却。</t>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>カクノウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <rPh sb="21" eb="23">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フィールドの値リストに格納されている情報を取得。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>フィールドの絞込み条件に格納されている情報を取得。</t>
+    <rPh sb="6" eb="8">
+      <t>シボリコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1. フィールドの絞込み条件に格納されている情報を取得し返却。</t>
+    <rPh sb="9" eb="11">
+      <t>シボリコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -1347,6 +1347,15 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,15 +1369,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1825,7 +1825,7 @@
       <c r="AD1" s="111"/>
       <c r="AE1" s="111"/>
       <c r="AF1" s="110" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AG1" s="110"/>
       <c r="AH1" s="110"/>
@@ -2346,64 +2346,64 @@
       <c r="D4" s="101"/>
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
-      <c r="G4" s="103" t="s">
-        <v>82</v>
+      <c r="G4" s="106" t="s">
+        <v>77</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="104"/>
-      <c r="Y4" s="104"/>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="104"/>
-      <c r="AF4" s="104"/>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="104"/>
-      <c r="AM4" s="104"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="104"/>
-      <c r="BA4" s="104"/>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="104"/>
-      <c r="BH4" s="104"/>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="105"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="107"/>
+      <c r="AK4" s="107"/>
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="107"/>
+      <c r="AR4" s="107"/>
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="107"/>
+      <c r="AY4" s="107"/>
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="107"/>
+      <c r="BF4" s="107"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="108"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="101" t="s">
@@ -2414,64 +2414,64 @@
       <c r="D5" s="101"/>
       <c r="E5" s="101"/>
       <c r="F5" s="101"/>
-      <c r="G5" s="103" t="s">
-        <v>83</v>
+      <c r="G5" s="106" t="s">
+        <v>76</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="104"/>
-      <c r="R5" s="104"/>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="104"/>
-      <c r="BA5" s="104"/>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="104"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="104"/>
-      <c r="BJ5" s="105"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="107"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="107"/>
+      <c r="W5" s="107"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="107"/>
+      <c r="AB5" s="107"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="107"/>
+      <c r="AL5" s="107"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="107"/>
+      <c r="AQ5" s="107"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="107"/>
+      <c r="AV5" s="107"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="107"/>
+      <c r="BA5" s="107"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="107"/>
+      <c r="BF5" s="107"/>
+      <c r="BG5" s="107"/>
+      <c r="BH5" s="107"/>
+      <c r="BI5" s="107"/>
+      <c r="BJ5" s="108"/>
     </row>
     <row r="6" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="101" t="s">
@@ -2482,64 +2482,64 @@
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="106" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="104"/>
-      <c r="O6" s="104"/>
-      <c r="P6" s="104"/>
-      <c r="Q6" s="104"/>
-      <c r="R6" s="104"/>
-      <c r="S6" s="104"/>
-      <c r="T6" s="104"/>
-      <c r="U6" s="104"/>
-      <c r="V6" s="104"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="104"/>
-      <c r="Y6" s="104"/>
-      <c r="Z6" s="104"/>
-      <c r="AA6" s="104"/>
-      <c r="AB6" s="104"/>
-      <c r="AC6" s="104"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="104"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="104"/>
-      <c r="AH6" s="104"/>
-      <c r="AI6" s="104"/>
-      <c r="AJ6" s="104"/>
-      <c r="AK6" s="104"/>
-      <c r="AL6" s="104"/>
-      <c r="AM6" s="104"/>
-      <c r="AN6" s="104"/>
-      <c r="AO6" s="104"/>
-      <c r="AP6" s="104"/>
-      <c r="AQ6" s="104"/>
-      <c r="AR6" s="104"/>
-      <c r="AS6" s="104"/>
-      <c r="AT6" s="104"/>
-      <c r="AU6" s="104"/>
-      <c r="AV6" s="104"/>
-      <c r="AW6" s="104"/>
-      <c r="AX6" s="104"/>
-      <c r="AY6" s="104"/>
-      <c r="AZ6" s="104"/>
-      <c r="BA6" s="104"/>
-      <c r="BB6" s="104"/>
-      <c r="BC6" s="104"/>
-      <c r="BD6" s="104"/>
-      <c r="BE6" s="104"/>
-      <c r="BF6" s="104"/>
-      <c r="BG6" s="104"/>
-      <c r="BH6" s="104"/>
-      <c r="BI6" s="104"/>
-      <c r="BJ6" s="105"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="107"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="107"/>
+      <c r="AL6" s="107"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="107"/>
+      <c r="AQ6" s="107"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="107"/>
+      <c r="AV6" s="107"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="107"/>
+      <c r="BA6" s="107"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="107"/>
+      <c r="BF6" s="107"/>
+      <c r="BG6" s="107"/>
+      <c r="BH6" s="107"/>
+      <c r="BI6" s="107"/>
+      <c r="BJ6" s="108"/>
     </row>
     <row r="7" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="101" t="s">
@@ -2550,64 +2550,64 @@
       <c r="D7" s="101"/>
       <c r="E7" s="101"/>
       <c r="F7" s="101"/>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="104"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="104"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="104"/>
-      <c r="T7" s="104"/>
-      <c r="U7" s="104"/>
-      <c r="V7" s="104"/>
-      <c r="W7" s="104"/>
-      <c r="X7" s="104"/>
-      <c r="Y7" s="104"/>
-      <c r="Z7" s="104"/>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="104"/>
-      <c r="AC7" s="104"/>
-      <c r="AD7" s="104"/>
-      <c r="AE7" s="104"/>
-      <c r="AF7" s="104"/>
-      <c r="AG7" s="104"/>
-      <c r="AH7" s="104"/>
-      <c r="AI7" s="104"/>
-      <c r="AJ7" s="104"/>
-      <c r="AK7" s="104"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="104"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="104"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="104"/>
-      <c r="AT7" s="104"/>
-      <c r="AU7" s="104"/>
-      <c r="AV7" s="104"/>
-      <c r="AW7" s="104"/>
-      <c r="AX7" s="104"/>
-      <c r="AY7" s="104"/>
-      <c r="AZ7" s="104"/>
-      <c r="BA7" s="104"/>
-      <c r="BB7" s="104"/>
-      <c r="BC7" s="104"/>
-      <c r="BD7" s="104"/>
-      <c r="BE7" s="104"/>
-      <c r="BF7" s="104"/>
-      <c r="BG7" s="104"/>
-      <c r="BH7" s="104"/>
-      <c r="BI7" s="104"/>
-      <c r="BJ7" s="105"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="107"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="107"/>
+      <c r="BA7" s="107"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="107"/>
+      <c r="BF7" s="107"/>
+      <c r="BG7" s="107"/>
+      <c r="BH7" s="107"/>
+      <c r="BI7" s="107"/>
+      <c r="BJ7" s="108"/>
     </row>
     <row r="8" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="101" t="s">
@@ -2618,64 +2618,64 @@
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
       <c r="F8" s="101"/>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="104"/>
-      <c r="R8" s="104"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="104"/>
-      <c r="W8" s="104"/>
-      <c r="X8" s="104"/>
-      <c r="Y8" s="104"/>
-      <c r="Z8" s="104"/>
-      <c r="AA8" s="104"/>
-      <c r="AB8" s="104"/>
-      <c r="AC8" s="104"/>
-      <c r="AD8" s="104"/>
-      <c r="AE8" s="104"/>
-      <c r="AF8" s="104"/>
-      <c r="AG8" s="104"/>
-      <c r="AH8" s="104"/>
-      <c r="AI8" s="104"/>
-      <c r="AJ8" s="104"/>
-      <c r="AK8" s="104"/>
-      <c r="AL8" s="104"/>
-      <c r="AM8" s="104"/>
-      <c r="AN8" s="104"/>
-      <c r="AO8" s="104"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="104"/>
-      <c r="AR8" s="104"/>
-      <c r="AS8" s="104"/>
-      <c r="AT8" s="104"/>
-      <c r="AU8" s="104"/>
-      <c r="AV8" s="104"/>
-      <c r="AW8" s="104"/>
-      <c r="AX8" s="104"/>
-      <c r="AY8" s="104"/>
-      <c r="AZ8" s="104"/>
-      <c r="BA8" s="104"/>
-      <c r="BB8" s="104"/>
-      <c r="BC8" s="104"/>
-      <c r="BD8" s="104"/>
-      <c r="BE8" s="104"/>
-      <c r="BF8" s="104"/>
-      <c r="BG8" s="104"/>
-      <c r="BH8" s="104"/>
-      <c r="BI8" s="104"/>
-      <c r="BJ8" s="105"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="107"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="107"/>
+      <c r="BA8" s="107"/>
+      <c r="BB8" s="107"/>
+      <c r="BC8" s="107"/>
+      <c r="BD8" s="107"/>
+      <c r="BE8" s="107"/>
+      <c r="BF8" s="107"/>
+      <c r="BG8" s="107"/>
+      <c r="BH8" s="107"/>
+      <c r="BI8" s="107"/>
+      <c r="BJ8" s="108"/>
     </row>
     <row r="9" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="101" t="s">
@@ -2686,34 +2686,34 @@
       <c r="D9" s="101"/>
       <c r="E9" s="101"/>
       <c r="F9" s="101"/>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="104"/>
-      <c r="AD9" s="104"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="105"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="107"/>
+      <c r="R9" s="107"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
       <c r="AG9" s="101" t="s">
         <v>15</v>
       </c>
@@ -2722,32 +2722,32 @@
       <c r="AJ9" s="101"/>
       <c r="AK9" s="101"/>
       <c r="AL9" s="101"/>
-      <c r="AM9" s="102" t="s">
+      <c r="AM9" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="AN9" s="102"/>
-      <c r="AO9" s="102"/>
-      <c r="AP9" s="102"/>
-      <c r="AQ9" s="102"/>
-      <c r="AR9" s="102"/>
-      <c r="AS9" s="102"/>
-      <c r="AT9" s="102"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="102"/>
-      <c r="BA9" s="102"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="102"/>
-      <c r="BI9" s="102"/>
-      <c r="BJ9" s="102"/>
+      <c r="AN9" s="105"/>
+      <c r="AO9" s="105"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="105"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="105"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="105"/>
     </row>
     <row r="11" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -2845,68 +2845,68 @@
       <c r="B13" s="32">
         <v>1</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
-      <c r="L13" s="107" t="s">
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="108"/>
-      <c r="T13" s="107" t="s">
-        <v>79</v>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="102" t="s">
+        <v>73</v>
       </c>
-      <c r="U13" s="107"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="107"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="108"/>
-      <c r="AB13" s="109" t="s">
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="109" t="s">
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="104"/>
+      <c r="AF13" s="104"/>
+      <c r="AG13" s="104"/>
+      <c r="AH13" s="104"/>
+      <c r="AI13" s="104"/>
+      <c r="AJ13" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="AK13" s="109"/>
-      <c r="AL13" s="109"/>
-      <c r="AM13" s="109"/>
-      <c r="AN13" s="109"/>
-      <c r="AO13" s="109"/>
-      <c r="AP13" s="109"/>
-      <c r="AQ13" s="109"/>
-      <c r="AR13" s="109"/>
-      <c r="AS13" s="109"/>
-      <c r="AT13" s="109"/>
-      <c r="AU13" s="109"/>
-      <c r="AV13" s="109"/>
-      <c r="AW13" s="109"/>
-      <c r="AX13" s="109"/>
-      <c r="AY13" s="109"/>
-      <c r="AZ13" s="109"/>
-      <c r="BA13" s="109"/>
-      <c r="BB13" s="106" t="s">
+      <c r="AK13" s="104"/>
+      <c r="AL13" s="104"/>
+      <c r="AM13" s="104"/>
+      <c r="AN13" s="104"/>
+      <c r="AO13" s="104"/>
+      <c r="AP13" s="104"/>
+      <c r="AQ13" s="104"/>
+      <c r="AR13" s="104"/>
+      <c r="AS13" s="104"/>
+      <c r="AT13" s="104"/>
+      <c r="AU13" s="104"/>
+      <c r="AV13" s="104"/>
+      <c r="AW13" s="104"/>
+      <c r="AX13" s="104"/>
+      <c r="AY13" s="104"/>
+      <c r="AZ13" s="104"/>
+      <c r="BA13" s="104"/>
+      <c r="BB13" s="109" t="s">
         <v>39</v>
       </c>
       <c r="BC13" s="93"/>
@@ -2929,68 +2929,68 @@
       <c r="B14" s="32">
         <v>2</v>
       </c>
-      <c r="C14" s="107" t="s">
-        <v>74</v>
+      <c r="C14" s="102" t="s">
+        <v>69</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="107" t="s">
-        <v>67</v>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="102" t="s">
+        <v>64</v>
       </c>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
-      <c r="T14" s="107" t="s">
-        <v>79</v>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="102" t="s">
+        <v>73</v>
       </c>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="109" t="s">
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="AC14" s="109"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="109" t="s">
-        <v>68</v>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104" t="s">
+        <v>65</v>
       </c>
-      <c r="AK14" s="109"/>
-      <c r="AL14" s="109"/>
-      <c r="AM14" s="109"/>
-      <c r="AN14" s="109"/>
-      <c r="AO14" s="109"/>
-      <c r="AP14" s="109"/>
-      <c r="AQ14" s="109"/>
-      <c r="AR14" s="109"/>
-      <c r="AS14" s="109"/>
-      <c r="AT14" s="109"/>
-      <c r="AU14" s="109"/>
-      <c r="AV14" s="109"/>
-      <c r="AW14" s="109"/>
-      <c r="AX14" s="109"/>
-      <c r="AY14" s="109"/>
-      <c r="AZ14" s="109"/>
-      <c r="BA14" s="109"/>
-      <c r="BB14" s="106" t="s">
+      <c r="AK14" s="104"/>
+      <c r="AL14" s="104"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="104"/>
+      <c r="AQ14" s="104"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="104"/>
+      <c r="AV14" s="104"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="104"/>
+      <c r="AZ14" s="104"/>
+      <c r="BA14" s="104"/>
+      <c r="BB14" s="109" t="s">
         <v>39</v>
       </c>
       <c r="BC14" s="93"/>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="16" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:260" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3096,37 +3096,37 @@
       <c r="B18" s="32">
         <v>1</v>
       </c>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="107" t="s">
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="102" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="107" t="s">
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="103"/>
+      <c r="T18" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="108"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="103"/>
       <c r="AB18" s="100" t="s">
         <v>28</v>
       </c>
@@ -3158,7 +3158,7 @@
       <c r="AX18" s="115"/>
       <c r="AY18" s="115"/>
       <c r="AZ18" s="115"/>
-      <c r="BA18" s="106"/>
+      <c r="BA18" s="109"/>
       <c r="BB18" s="93" t="s">
         <v>39</v>
       </c>
@@ -3361,7 +3361,7 @@
       <c r="AF22" s="76"/>
       <c r="AG22" s="76"/>
       <c r="AH22" s="97" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="AI22" s="98"/>
       <c r="AJ22" s="98"/>
@@ -3398,7 +3398,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" s="81"/>
       <c r="E23" s="81"/>
@@ -3409,7 +3409,7 @@
       <c r="J23" s="81"/>
       <c r="K23" s="82"/>
       <c r="L23" s="81" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M23" s="81"/>
       <c r="N23" s="81"/>
@@ -3439,7 +3439,7 @@
       <c r="AF23" s="76"/>
       <c r="AG23" s="76"/>
       <c r="AH23" s="97" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AI23" s="98"/>
       <c r="AJ23" s="98"/>
@@ -4626,16 +4626,6 @@
     <mergeCell ref="T29:AA29"/>
     <mergeCell ref="AB29:BA29"/>
     <mergeCell ref="BB29:BI29"/>
-    <mergeCell ref="BB14:BI14"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:BA23"/>
-    <mergeCell ref="BB23:BI23"/>
-    <mergeCell ref="BB17:BI17"/>
-    <mergeCell ref="AH17:BA17"/>
     <mergeCell ref="C18:K18"/>
     <mergeCell ref="L18:S18"/>
     <mergeCell ref="T18:AA18"/>
@@ -4676,7 +4666,6 @@
     <mergeCell ref="T13:AA13"/>
     <mergeCell ref="AB13:AI13"/>
     <mergeCell ref="AJ13:BA13"/>
-    <mergeCell ref="AM9:BJ9"/>
     <mergeCell ref="G6:BJ6"/>
     <mergeCell ref="G9:AF9"/>
     <mergeCell ref="A8:F8"/>
@@ -4694,6 +4683,10 @@
     <mergeCell ref="T14:AA14"/>
     <mergeCell ref="AB14:AI14"/>
     <mergeCell ref="AJ14:BA14"/>
+    <mergeCell ref="AM9:BJ9"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="BB17:BI17"/>
+    <mergeCell ref="AH17:BA17"/>
     <mergeCell ref="BB27:BI27"/>
     <mergeCell ref="BB28:BI28"/>
     <mergeCell ref="AB28:BA28"/>
@@ -4705,6 +4698,10 @@
     <mergeCell ref="BB22:BI22"/>
     <mergeCell ref="AB18:AD18"/>
     <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:BA23"/>
+    <mergeCell ref="BB23:BI23"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="L21:S21"/>
     <mergeCell ref="T21:AA21"/>
@@ -4721,6 +4718,9 @@
     <mergeCell ref="L22:S22"/>
     <mergeCell ref="T22:AA22"/>
     <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T23:AA23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -6630,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
@@ -6639,28 +6639,28 @@
       <c r="H9" s="80"/>
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
-      <c r="K9" s="107" t="s">
+      <c r="K9" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="107"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="107"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="109" t="s">
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="104"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
       <c r="AA9" s="121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB9" s="121"/>
       <c r="AC9" s="121"/>
@@ -6901,7 +6901,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
@@ -6910,28 +6910,28 @@
       <c r="H10" s="80"/>
       <c r="I10" s="80"/>
       <c r="J10" s="80"/>
-      <c r="K10" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="107"/>
-      <c r="R10" s="108"/>
-      <c r="S10" s="109" t="s">
+      <c r="K10" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="109"/>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="109"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="104"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
       <c r="AA10" s="121" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB10" s="121"/>
       <c r="AC10" s="121"/>
@@ -9111,26 +9111,26 @@
       <c r="H19" s="93"/>
       <c r="I19" s="93"/>
       <c r="J19" s="94"/>
-      <c r="K19" s="107" t="s">
+      <c r="K19" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="108"/>
-      <c r="S19" s="107" t="s">
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="103"/>
+      <c r="S19" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="108"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="103"/>
       <c r="AA19" s="125" t="s">
         <v>28</v>
       </c>
@@ -9388,26 +9388,26 @@
       <c r="H20" s="93"/>
       <c r="I20" s="93"/>
       <c r="J20" s="94"/>
-      <c r="K20" s="107" t="s">
+      <c r="K20" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="108"/>
-      <c r="S20" s="107" t="s">
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="103"/>
+      <c r="S20" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="108"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="103"/>
       <c r="AA20" s="125" t="s">
         <v>28</v>
       </c>
@@ -12035,7 +12035,7 @@
     <row r="30" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -12557,7 +12557,7 @@
     <row r="32" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="7"/>
@@ -21028,7 +21028,7 @@
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
       <c r="G4" s="129" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H4" s="129"/>
       <c r="I4" s="129"/>
@@ -21292,7 +21292,7 @@
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
       <c r="G5" s="131" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H5" s="131"/>
       <c r="I5" s="131"/>
@@ -23406,7 +23406,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
@@ -23416,7 +23416,7 @@
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
@@ -23426,7 +23426,7 @@
       <c r="Q13" s="80"/>
       <c r="R13" s="80"/>
       <c r="S13" s="80" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
@@ -27213,7 +27213,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="70" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -35534,6 +35534,16 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -35545,16 +35555,6 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:Z9"/>
@@ -35630,7 +35630,7 @@
   <dimension ref="A1:IY59"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36202,7 +36202,7 @@
       <c r="E4" s="101"/>
       <c r="F4" s="101"/>
       <c r="G4" s="129" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H4" s="129"/>
       <c r="I4" s="129"/>
@@ -36466,7 +36466,7 @@
       <c r="E5" s="130"/>
       <c r="F5" s="130"/>
       <c r="G5" s="131" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="131"/>
       <c r="I5" s="131"/>
@@ -38586,7 +38586,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
@@ -38596,7 +38596,7 @@
       <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
@@ -38616,7 +38616,7 @@
       <c r="Y13" s="140"/>
       <c r="Z13" s="140"/>
       <c r="AA13" s="117" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AB13" s="117"/>
       <c r="AC13" s="117"/>
@@ -42393,7 +42393,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="70" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -50714,6 +50714,16 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -50725,16 +50735,6 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="C9:J9"/>
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="S9:Z9"/>
@@ -50806,12 +50806,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -50820,7 +50814,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -50952,16 +50946,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -50969,7 +50960,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50985,4 +50976,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>